--- a/src/main/resources/design/blog设计.xlsx
+++ b/src/main/resources/design/blog设计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729D416-2F4D-477C-8C5C-A61FEF9B4410}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文章表" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,14 +182,42 @@
   </si>
   <si>
     <t>评论创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_draft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,11 +278,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +364,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +416,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,21 +609,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -583,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -594,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -605,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -616,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -625,6 +698,39 @@
       </c>
       <c r="C7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -635,21 +741,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -690,18 +796,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -734,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -753,19 +861,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -798,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -809,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -820,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -831,7 +939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -849,20 +957,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -895,7 +1003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -906,7 +1014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -917,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>30</v>
       </c>
